--- a/biology/Botanique/Christian_Ernst_Stahl/Christian_Ernst_Stahl.xlsx
+++ b/biology/Botanique/Christian_Ernst_Stahl/Christian_Ernst_Stahl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Christian Ernst[1] Stahl, né le 21 juin 1848 à Schiltigheim en Alsace et mort le 3 décembre 1919 à Iéna, est un botaniste allemand.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Christian Ernst Stahl, né le 21 juin 1848 à Schiltigheim en Alsace et mort le 3 décembre 1919 à Iéna, est un botaniste allemand.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est l’ami d’enfance du botaniste Andreas Franz Wilhelm Schimper (1856-1901). Stahl étudie la botanique à l’université de Strasbourg auprès notamment de Pierre Marie Alexis Millardet (1838-1902), de l’université de Halle auprès de Heinrich Anton de Bary (1831-1888). Stahl retourne à Strasbourg pour suivre de Bary qui venait d’y être nommé. Il y obtient son doctorat en 1874.
 Il devient ensuite l’assistant de Julius von Sachs (1832-1897) à l’université de Wurtzbourg, et obtient en 1877 son habilitation en botanique. C’est là qu’il commence à développer sa théorie sur la formation du lichen. Il est Privatdozent en 1877, puis professeur extraordinaire à Strasbourg en 1880. En 1881, il obtient la chaire de botanique à l’université d'Iéna où il dirige également le jardin botanique.
@@ -546,7 +560,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1873 : Entwickelung und Anatomie der Lenticellen. Leipzig.
 1877 : Beiträge zur Entwickelungsgeschichte der Flechten. Leipzig.
@@ -583,7 +599,9 @@
           <t>Note</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Son prénom est parfois graphié Ernest
@@ -615,7 +633,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(de) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en allemand intitulé « Ernst Stahl (Botaniker) » (voir la liste des auteurs) (version du 10 septembre 2007).
 (en) Herbier national néerlandais</t>
